--- a/medicine/Sexualité et sexologie/Clínica_Eugin/Clínica_Eugin.xlsx
+++ b/medicine/Sexualité et sexologie/Clínica_Eugin/Clínica_Eugin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%ADnica_Eugin</t>
+          <t>Clínica_Eugin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La clinique Eugin (Clínica Eugin en espagnol) est un centre spécialisé qui, grâce à la procréation médicalement assistée aide les femmes et les couples qui ne peuvent pas avoir d'enfants. Ce centre, homologué par le ministère de la Santé espagnol et par la Généralité de Catalogne, a son siège à Barcelone. Depuis 2015, la clinique Eugin appartient au groupe NMC Healthcare, propriétaire de nombreux centres de santé aux Émirats arabes unis et coté à la Bourse de Londres[1]. Actuellement, la clinique est présente à Barcelone et Madrid[2] (Espagne), à Bogota (Colombie)[3] et à Modène (Italie)[4].
-La clinique Eugin dispose d'une banque d'ovules importante, et est spécialisée dans les traitements de procréation médicalement assistée avec don de ces gamètes. Elle a été pionnière en Espagne en implantant le système électronique à double sécurité IVF Witness, qui garantit l'identification des ovules, ce qui élimine pratiquement le risque de confusion durant le traitement[5]. En Catalogne, en 2015, la clinique Eugin a concentré 30 % du total des traitements liés à cette spécialité réalisés dans cette région. Au cours de cette même année, la clinique Eugin a acquis le Centro de Reproducción Humana Asistida (CIRH) spécialisé en fertilité masculine[6].
+La clinique Eugin (Clínica Eugin en espagnol) est un centre spécialisé qui, grâce à la procréation médicalement assistée aide les femmes et les couples qui ne peuvent pas avoir d'enfants. Ce centre, homologué par le ministère de la Santé espagnol et par la Généralité de Catalogne, a son siège à Barcelone. Depuis 2015, la clinique Eugin appartient au groupe NMC Healthcare, propriétaire de nombreux centres de santé aux Émirats arabes unis et coté à la Bourse de Londres. Actuellement, la clinique est présente à Barcelone et Madrid (Espagne), à Bogota (Colombie) et à Modène (Italie).
+La clinique Eugin dispose d'une banque d'ovules importante, et est spécialisée dans les traitements de procréation médicalement assistée avec don de ces gamètes. Elle a été pionnière en Espagne en implantant le système électronique à double sécurité IVF Witness, qui garantit l'identification des ovules, ce qui élimine pratiquement le risque de confusion durant le traitement. En Catalogne, en 2015, la clinique Eugin a concentré 30 % du total des traitements liés à cette spécialité réalisés dans cette région. Au cours de cette même année, la clinique Eugin a acquis le Centro de Reproducción Humana Asistida (CIRH) spécialisé en fertilité masculine.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%ADnica_Eugin</t>
+          <t>Clínica_Eugin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clinique a été fondée à Barcelone, en 1999, par le Dr Mario Reverter Calatayud et le Dr Oriol Coll Escursell, tous deux gynécologues spécialisés en PMA.
-En septembre 2007, la fondation Eugin a été constituée dans le but d'encadrer l'enseignement et la recherche réalisés par ce centre. La fondation a pour but principal l'étude de la fertilité et de la reproduction humaine au sein de la clinique, aussi bien dans ses aspects personnels et sociaux, ainsi que la promotion de la santé par le biais de l'analyse, de la recherche et de la divulgation de ces connaissances. Une grande partie de ces recherches sont menées dans le laboratoire d'Eugin dans le Parc scientifique de Barcelone. Il s'agit d'un centre de recherche rattaché à l'université de Barcelone. Le laboratoire est spécialisé en biologie cellulaire et moléculaire de la reproduction, et ses recherches visent à déterminer les causes de l'infertilité. En 2015, les deux entités ont présenté à la société européenne de reproduction humaine et d'embryologie (ESHRE en anglais), une étude visant à comprendre les modifications moléculaires qui se produisent dans les ovules[7]. </t>
+En septembre 2007, la fondation Eugin a été constituée dans le but d'encadrer l'enseignement et la recherche réalisés par ce centre. La fondation a pour but principal l'étude de la fertilité et de la reproduction humaine au sein de la clinique, aussi bien dans ses aspects personnels et sociaux, ainsi que la promotion de la santé par le biais de l'analyse, de la recherche et de la divulgation de ces connaissances. Une grande partie de ces recherches sont menées dans le laboratoire d'Eugin dans le Parc scientifique de Barcelone. Il s'agit d'un centre de recherche rattaché à l'université de Barcelone. Le laboratoire est spécialisé en biologie cellulaire et moléculaire de la reproduction, et ses recherches visent à déterminer les causes de l'infertilité. En 2015, les deux entités ont présenté à la société européenne de reproduction humaine et d'embryologie (ESHRE en anglais), une étude visant à comprendre les modifications moléculaires qui se produisent dans les ovules. </t>
         </is>
       </c>
     </row>
